--- a/Apps analysis.xlsx
+++ b/Apps analysis.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" activeTab="1" xr2:uid="{26CDE64D-3147-485E-A22F-A139C97E0208}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" activeTab="1" xr2:uid="{26CDE64D-3147-485E-A22F-A139C97E0208}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="2" r:id="rId1"/>
     <sheet name="Performance Data" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Performance Data'!$D$26:$D$62</definedName>
   </definedNames>
@@ -767,6 +764,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,7 +774,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,1176 +791,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Performance Data'!$C$26:$C$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>10259</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30687</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10389</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3861</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14535</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3624</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18151</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2171</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6732</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9084</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8171</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12324</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7894</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6891</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9506</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9429</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8855</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10976</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5985</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5795</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2565</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11482</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Performance Data'!$E$26:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>71.188321220000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.877865894000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.413285380000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.827779530999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>88.748402560000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184.03855192899999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>243.67111774599999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.238303272000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.864185062000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>67.768116532999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.274672147000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.387654316000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.345291291999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.071160835000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.699385945</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>69.49710571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57.388310021999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44.051093442000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.321582231999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.4520912609999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>38.228845964999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>66.015318257999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>79.977556206000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>60.423975224000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>61.709933532000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>117.704227648</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.788666498000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67.51137774</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>75.234335766000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59F7-438E-A4C7-78398D0C4BC2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="572670248"/>
-        <c:axId val="572667624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="572670248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Classes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="572667624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="572667624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Response</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="572670248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9F5F87-E5B0-45DE-ADDC-A0D43EFCF800}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2027,8 +856,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="244475"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -2070,6 +899,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2080,7 +910,7 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2102,7 +932,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -2221,8 +1051,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="244475"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -2264,6 +1094,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2274,7 +1105,7 @@
                       <m:accPr>
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2296,7 +1127,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -2353,106 +1184,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Good apps"/>
-      <sheetName val="Automation data"/>
-      <sheetName val="Performance Data"/>
-      <sheetName val="DroidBench"/>
-      <sheetName val="DroidAutoResults"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="C2">
-            <v>10820</v>
-          </cell>
-          <cell r="E2">
-            <v>298.85296187</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>4558</v>
-          </cell>
-          <cell r="E3">
-            <v>80.490723951999996</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>7272</v>
-          </cell>
-          <cell r="E4">
-            <v>140.07585116499999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>23625</v>
-          </cell>
-          <cell r="E5">
-            <v>181.33000027</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>3475</v>
-          </cell>
-          <cell r="E6">
-            <v>55.838860363000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>10519</v>
-          </cell>
-          <cell r="E7">
-            <v>268.57968520999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>11625</v>
-          </cell>
-          <cell r="E8">
-            <v>164.31127994400001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>6231</v>
-          </cell>
-          <cell r="E9">
-            <v>89.588088827999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>3439</v>
-          </cell>
-          <cell r="E10">
-            <v>79.257223177</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3911,7 +2642,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J31" activeCellId="1" sqref="H23 J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4507,15 +3238,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
@@ -5407,7 +4138,7 @@
         <v>97.114264705882348</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="13">
+      <c r="I61" s="10">
         <v>64.576499999999996</v>
       </c>
     </row>

--- a/Apps analysis.xlsx
+++ b/Apps analysis.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" activeTab="1" xr2:uid="{26CDE64D-3147-485E-A22F-A139C97E0208}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6360" xr2:uid="{26CDE64D-3147-485E-A22F-A139C97E0208}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="2" r:id="rId1"/>
     <sheet name="Performance Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Performance Data'!$D$26:$D$62</definedName>
@@ -1485,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6E712-1F4B-4C62-8832-B9CFC954095C}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2638,11 +2637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A670305-22E8-4E17-9602-4707BF24C397}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J31" activeCellId="1" sqref="H23 J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3272,7 +3270,7 @@
         <v>81.922337662337668</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3446,7 +3444,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -3620,7 +3618,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -3694,7 +3692,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -3768,7 +3766,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -3817,7 +3815,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -3991,7 +3989,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -4015,7 +4013,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -4176,40 +4174,7 @@
       <c r="H63" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="D26:D62" xr:uid="{100394FA-C09E-4B4C-90F9-8C42267DC482}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="126.45536"/>
-        <filter val="147.987824"/>
-        <filter val="1551.074816"/>
-        <filter val="202.973064"/>
-        <filter val="210.067864"/>
-        <filter val="211.140144"/>
-        <filter val="230.7124"/>
-        <filter val="247.092728"/>
-        <filter val="262.330888"/>
-        <filter val="311.725136"/>
-        <filter val="415.31828"/>
-        <filter val="422.221232"/>
-        <filter val="432.980432"/>
-        <filter val="443.486096"/>
-        <filter val="460.940408"/>
-        <filter val="488.777256"/>
-        <filter val="489.971624"/>
-        <filter val="515.098912"/>
-        <filter val="560.426992"/>
-        <filter val="604.388392"/>
-        <filter val="608.133352"/>
-        <filter val="614.12"/>
-        <filter val="644.836048"/>
-        <filter val="704.650984"/>
-        <filter val="717.147072"/>
-        <filter val="84.949968"/>
-        <filter val="868.68064"/>
-        <filter val="884.90064"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D26:D62" xr:uid="{100394FA-C09E-4B4C-90F9-8C42267DC482}"/>
   <mergeCells count="1">
     <mergeCell ref="A25:G25"/>
   </mergeCells>
@@ -4217,335 +4182,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC86335-F345-4477-8F0C-1EE3028E6AE4}">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>5067.7770781219033</v>
-      </c>
-      <c r="C1">
-        <v>298.85296187</v>
-      </c>
-      <c r="D1">
-        <f>C1^2</f>
-        <v>89313.092818471676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1590.2441882598487</v>
-      </c>
-      <c r="C2">
-        <v>80.490723951999996</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D23" si="0">C2^2</f>
-        <v>6478.7566423170656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>376.87564924532182</v>
-      </c>
-      <c r="C3">
-        <v>140.07585116499999</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>19621.24407959923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1430.9409042459424</v>
-      </c>
-      <c r="C4">
-        <v>181.33000027</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>32880.568997918199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>7876.2789569518154</v>
-      </c>
-      <c r="C5">
-        <v>55.838860363000002</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3117.9783266386125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>33870.188596123226</v>
-      </c>
-      <c r="C6">
-        <v>268.57968520999998</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>72135.047307502682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>59375.613623584992</v>
-      </c>
-      <c r="C7">
-        <v>164.31127994400001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>26998.19671683554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1957.0274763854461</v>
-      </c>
-      <c r="C8">
-        <v>89.588088827999997</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>8026.025659853618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>192.21562743338396</v>
-      </c>
-      <c r="C9">
-        <v>79.257223177</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>6281.7074257287859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>4592.5176184302672</v>
-      </c>
-      <c r="C10">
-        <v>241.702322614</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>58420.012757002136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>8887.7138084243379</v>
-      </c>
-      <c r="C11">
-        <v>207.69567515899999</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>43137.493479752848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>207.00459671671345</v>
-      </c>
-      <c r="C12">
-        <v>398.04841034600003</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>158442.53697897762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1793.1236946043309</v>
-      </c>
-      <c r="C13">
-        <v>364.95987649800003</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>133195.71145343545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>5051.1099024344376</v>
-      </c>
-      <c r="C14">
-        <v>137.222458751</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>18830.003185669899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>278.86949094006354</v>
-      </c>
-      <c r="C15">
-        <v>440.015701089</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>193613.81720484421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4829.8477020669143</v>
-      </c>
-      <c r="C16">
-        <v>333.50881209800002</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>111228.12774701908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>3293.4181271811854</v>
-      </c>
-      <c r="C17">
-        <v>420.14710339099997</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>176523.58848784762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>1940.4988334358156</v>
-      </c>
-      <c r="C18">
-        <v>118.383269785</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>14014.598564988093</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2334.9753094039379</v>
-      </c>
-      <c r="C19">
-        <v>240.42873271299999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>57805.975513979189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>71.437846684272557</v>
-      </c>
-      <c r="C20">
-        <v>82.581340682000004</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>6819.6778288365485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1461.4446638156967</v>
-      </c>
-      <c r="C21">
-        <v>110.66449301999999</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>12246.630015373628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>4358.0222447050273</v>
-      </c>
-      <c r="C22">
-        <v>80.592292095999994</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>6495.1175452869829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>6396.4094966838893</v>
-      </c>
-      <c r="C23">
-        <v>104.25323182</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>10868.73634491466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>3651.0567818705663</v>
-      </c>
-      <c r="D24">
-        <f>SUM(D1:D23)</f>
-        <v>1266494.6450827932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>3808.1158965238583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>13854.285206212207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>828.78731873306765</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>4557.7861243529678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>5660.2052781512266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <f>SUM(A1:A29)</f>
-        <v>189593.79204172269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>